--- a/out/production/ProjetAlgo/Projet_DistAgri_Inst_Petite.xlsx
+++ b/out/production/ProjetAlgo/Projet_DistAgri_Inst_Petite.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ENSIMAG\AlgoProg\TP\ProjetAlgo\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbrulard\Documents\Thèse\008 _ Enseignement\2018\Projet Esisar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7890" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DonnéesFermes" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DonnéesDemandes!$A$1:$N$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DonnéesProd!$A$1:$N$31</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
@@ -548,10 +548,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
@@ -739,10 +739,10 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="A2" sqref="A2:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
@@ -2118,7 +2118,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2130,7 +2129,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="5" width="17.7109375" customWidth="1"/>
@@ -2333,10 +2332,10 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
@@ -3712,7 +3711,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3720,11 +3718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -3757,7 +3755,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">MROUND(RANDBETWEEN(100,800)*30,500)</f>
-        <v>4500</v>
+        <v>20500</v>
       </c>
       <c r="D2" s="3">
         <v>45.352760000000004</v>
@@ -3775,7 +3773,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C11" ca="1" si="0">MROUND(RANDBETWEEN(100,800)*30,500)</f>
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="D3" s="3">
         <v>45.172319999999999</v>
@@ -3793,7 +3791,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D4" s="3">
         <v>45.05104</v>
@@ -3811,7 +3809,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18500</v>
+        <v>3500</v>
       </c>
       <c r="D5" s="3">
         <v>45.210650000000001</v>
@@ -3829,7 +3827,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="D6" s="3">
         <v>44.911020000000001</v>
@@ -3847,7 +3845,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="D7" s="3">
         <v>45.14631</v>
@@ -3865,7 +3863,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="D8" s="3">
         <v>45.206659999999999</v>
@@ -3883,7 +3881,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="D9" s="3">
         <v>45.15701</v>
@@ -3901,7 +3899,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21500</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3">
         <v>45.234389999999998</v>
@@ -3919,7 +3917,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>23500</v>
+        <v>10500</v>
       </c>
       <c r="D11" s="3">
         <v>45.153419999999997</v>
@@ -3930,7 +3928,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3938,11 +3935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
